--- a/public/main.xlsx
+++ b/public/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Resala\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Resala\sheets\server\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5D3D2F-73BB-4B9E-8763-B79164D6A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4E7B0E-7618-479E-A6A2-FD122CD3849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{ACEE059D-0941-47C2-96CA-663C783AB5D4}"/>
   </bookViews>
@@ -6144,27 +6144,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -22398,10 +22378,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1839:A1980 A2:A47 A1827:A1837">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1839:B1980 A2:B47 A1827:B1837">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
